--- a/data/output_mail_excel_dir/ProductQualityNotifications.xlsx
+++ b/data/output_mail_excel_dir/ProductQualityNotifications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,50 +496,45 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Traceability</t>
+          <t>DateCode</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>DateCode</t>
+          <t>DeliverySize</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>DeliverySize</t>
+          <t>CasesSampled</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>CasesSampled</t>
+          <t>CasesRejected</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>CasesRejected</t>
+          <t>UnitsRejected</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>UnitsRejected</t>
+          <t>RejectionLevel</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>RejectionLevel</t>
+          <t>Details</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Details</t>
+          <t>ActionTaken</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>ActionTaken</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>ContactsInformed</t>
         </is>
@@ -573,7 +568,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>YELLOW NECTARINES X4</t>
+          <t>00082723: YELLOW NECTARINES X4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -600,50 +595,45 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Variety: Honey Glo</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>69 x 10</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>69 x 10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>69</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>690</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>During the inspection of 40 packs of PR yellow nectarines (82723) from a total of 20 cases (100 packs), several issues were discovered. - 20 fruits exhibited internal breakdown and were soft. - 10 packs contained internal rots, glassy, and mushy texture. - 2 packs displayed external storage mold. The major defect percentage is calculated at 9.7%. Combined defect percentage is at 30%. The specification tolerance for major defects is 2%. Total cases received: 69.</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>During the inspection of 40 packs of PR yellow nectarines (82723) from a total of 20 cases (100 packs), several issues were discovered. - 20 fruits exhibited internal breakdown and were soft. - 10 packs contained internal rots, glassy, and mushy texture. - 2 packs displayed external storage mold. The major defect percentage is calculated at 9.7% . Combined defect percentage is at 30%. The specification tolerance for major defects is 2%</t>
+          <t>The product has been rejected on site.</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
-        <is>
-          <t>The product has been rejected on site.</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
         <is>
           <t>quality@food-surveys.com, Heather.Chapman@marks-and-spencer.com, Andrew.Mellonie@marks-and-spencer.com, Jennifer.Hackett@gistworld.com, pablo.martinez@marks-and-spencer.com, mandstechnical@dpsltd.com</t>
         </is>
@@ -700,50 +690,45 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>887/040/008</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>29 x 8</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>29 x 8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>29</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>232</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>22 x Heavy scarring (plate 8), multiple packs also contain greening (levels 6 / 7) and early signs of rind breakdown (plate 3). 27.5% affected, spec states reject if combined non-progressive defects are over 10%</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>22 x Heavy scarring (plate 8), multiple packs also contain greening (levels 6 / 7) and early signs of rind breakdown (plate 3). 27.5% affected, spec states reject if combined non-progressive defects are over 10%</t>
+          <t>Rejected</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
-        <is>
-          <t>Rejected</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
         <is>
           <t>sainsburys@food-surveys.com, Agata.Pytko@sainsburys.co.uk, michelle.calvert@sainsburys.co.uk, sarah.blanford@sainsburys.com, technical@efcltd.com</t>
         </is>
@@ -794,40 +779,35 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Date Code: 2024-09-03</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
           <t>10 x 16</t>
         </is>
       </c>
-      <c r="P4" t="n">
+      <c r="O4" t="n">
         <v>3</v>
       </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1x Rot- Progressive defect not acceptable to customers. No QAS available.</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1x Rot- Progressive defect not acceptable to customers. No QAS available.</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
